--- a/model_templates/ark.BDMOlinkFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.BDMOlinkFileAnnotationTemplate.xlsx
@@ -52965,69 +52965,69 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$Q1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$Q1 = "synovial fluid"</formula>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$Q1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$Q1 = "synovial fluid"</formula>
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+      <formula>$Q1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>$Q1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>$Q1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$Q1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$Q1 = "suction blister fluid"</formula>
+      <formula>$Q1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$Q1 = "suction blister fluid"</formula>
+      <formula>$Q1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">

--- a/model_templates/ark.BDMOlinkFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.BDMOlinkFileAnnotationTemplate.xlsx
@@ -52967,67 +52967,67 @@
   </sheetData>
   <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$Q1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$Q1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$Q1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$Q1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$Q1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$Q1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$Q1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>$Q1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$Q1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$Q1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
-      <formula>$Q1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$Q1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$Q1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">

--- a/model_templates/ark.BDMOlinkFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.BDMOlinkFileAnnotationTemplate.xlsx
@@ -52965,79 +52965,79 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="X1:X1000">
+  <conditionalFormatting sqref="Y1:Y1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$Q1 = "skin biopsy"</formula>
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$Q1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$Q1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$Q1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$Q1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:W1000">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+      <formula>$Q1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>$Q1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
       <formula>$Q1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$Q1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
       <formula>$Q1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
       <formula>$Q1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$Q1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$Q1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">

--- a/model_templates/ark.BDMOlinkFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.BDMOlinkFileAnnotationTemplate.xlsx
@@ -52965,39 +52965,39 @@
       <c r="Y1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Y1:Y1000">
+  <conditionalFormatting sqref="X1:X1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
+      <formula>$Q1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$Q1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
+  <conditionalFormatting sqref="X1:X1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$Q1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$Q1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
+      <formula>$Q1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$Q1 = "synovial tissue"</formula>
+  <conditionalFormatting sqref="Y1:Y1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$Q1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="W1:W1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$Q1 = "suction blister cells"</formula>
+      <formula>$Q1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1000">
@@ -53007,37 +53007,37 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$Q1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$Q1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
-      <formula>$Q1 = "saliva"</formula>
+      <formula>$Q1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$Q1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$Q1 = "suction blister fluid"</formula>
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$Q1 = "synovial fluid"</formula>
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$Q1 = "synovial fluid"</formula>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$Q1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
